--- a/biology/Botanique/Eriophorum_angustifolium/Eriophorum_angustifolium.xlsx
+++ b/biology/Botanique/Eriophorum_angustifolium/Eriophorum_angustifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriophorum angustifolium
 La Linaigrette à feuilles étroites (Eriophorum angustifolium) est une plante herbacée vivace de 40 à 60 cm de hauteur de la famille des Cyperaceae.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs:
 Type d'inflorescence: racème d'épis
@@ -555,8 +569,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Confusion possible
-La Linaigrette à feuilles étroites se distingue de la Linaigrette à feuilles larges (E. latifolium) par :
+          <t>Confusion possible</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Linaigrette à feuilles étroites se distingue de la Linaigrette à feuilles larges (E. latifolium) par :
 souche stolonifère
 feuilles caulinaires généralement plus étroites (3-6 mm)
 pédoncules des épillets lisses
@@ -589,10 +608,12 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Marais et landes tourbeuses.
-Au Nunavik, elle pousse dans les milieux humides et aquatiques (eau douce) : les combes à neige, les prés humides, les tourbières, les milieux palustres ou les surfaces inondables en bordure des lacs, des mares, des ruisseaux et des rivières. Dans son habitat, les végétations muscinale, herbacée et arborescente sont dominantes[1].
+Au Nunavik, elle pousse dans les milieux humides et aquatiques (eau douce) : les combes à neige, les prés humides, les tourbières, les milieux palustres ou les surfaces inondables en bordure des lacs, des mares, des ruisseaux et des rivières. Dans son habitat, les végétations muscinale, herbacée et arborescente sont dominantes.
 </t>
         </is>
       </c>
@@ -621,10 +642,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe (France), en Asie et en Amérique boréale. 
-Au Québec, elle se trouve au Nunavik, à l'île d'Anticosti et en Gaspésie. Les linaigrettes rousse (Eriophorum russeolum) et dense (Eriophurum vaginatum subsp. spissum) sont les deux seules autres linaigrettes du Québec qui poussent ailleurs qu'au Nunavik[1].
+Au Québec, elle se trouve au Nunavik, à l'île d'Anticosti et en Gaspésie. Les linaigrettes rousse (Eriophorum russeolum) et dense (Eriophurum vaginatum subsp. spissum) sont les deux seules autres linaigrettes du Québec qui poussent ailleurs qu'au Nunavik.
 </t>
         </is>
       </c>
@@ -653,7 +676,9 @@
           <t>Protection en France</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Aquitaine, Centre, Île-de-France, Nord-Pas-de-Calais, Picardie, Région wallonne (Belgique)
 </t>
@@ -684,9 +709,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mèche des kudlik, lampes à huile traditionnelles utilisées par les peuples de l’Arctique, était principalement composée de linaigrette[2]. Ces lampes devaient être entretenues continuellement en coupant la mèche pour que la lampe ne produise pas de fumée[3]. Aujourd'hui principalement utilisées à des fins cérémonielles, elles étaient l'outil le plus important pour les Inuits dans leurs habitations[4]. 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mèche des kudlik, lampes à huile traditionnelles utilisées par les peuples de l’Arctique, était principalement composée de linaigrette. Ces lampes devaient être entretenues continuellement en coupant la mèche pour que la lampe ne produise pas de fumée. Aujourd'hui principalement utilisées à des fins cérémonielles, elles étaient l'outil le plus important pour les Inuits dans leurs habitations. 
 </t>
         </is>
       </c>
@@ -715,7 +742,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Non valides
 Eriophorum angustifolium var. alpinum Gaudin
